--- a/biology/Zoologie/Il_fait_nuit_en_Amérique/Il_fait_nuit_en_Amérique.xlsx
+++ b/biology/Zoologie/Il_fait_nuit_en_Amérique/Il_fait_nuit_en_Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il_fait_nuit_en_Am%C3%A9rique</t>
+          <t>Il_fait_nuit_en_Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait nuit en Amérique (É Noite na América) est un film documentaire brésilien réalisé par Ana Vaz et sorti en 2022.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il_fait_nuit_en_Am%C3%A9rique</t>
+          <t>Il_fait_nuit_en_Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie des animaux, la nuit, dans le zoo de Brasilia.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Il_fait_nuit_en_Am%C3%A9rique</t>
+          <t>Il_fait_nuit_en_Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Il fait nuit en Amérique
 Titre original : É Noite na América
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Il_fait_nuit_en_Am%C3%A9rique</t>
+          <t>Il_fait_nuit_en_Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mention spéciale (« Léopard vert ») au Festival international du film de Locarno 2022[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mention spéciale (« Léopard vert ») au Festival international du film de Locarno 2022</t>
         </is>
       </c>
     </row>
